--- a/IMKL2.x/5. visualisatie/PMKL-Handreiking-visualisatie-changelog.xlsx
+++ b/IMKL2.x/5. visualisatie/PMKL-Handreiking-visualisatie-changelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\5. visualisatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8DB2C8-2033-49C4-B52C-4D7E7BF97463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80846A4-73D5-404A-9204-44F17F931E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -179,6 +179,34 @@
   </si>
   <si>
     <t>Tekst edits uit TCS review verwerkt</t>
+  </si>
+  <si>
+    <t>hoofdstuk 4</t>
+  </si>
+  <si>
+    <t>Titel was: ContainerElementen
+wordt: Kabel- en leidingcontainers</t>
+  </si>
+  <si>
+    <t>Thema: riool onder druk (oude term) vervangen door riool onder over- of onderdruk</t>
+  </si>
+  <si>
+    <t>Handreiking Visualisatie update naar v 1.0.1</t>
+  </si>
+  <si>
+    <t>hoofdstuk: documentatie</t>
+  </si>
+  <si>
+    <t>hfstk 7.2.2</t>
+  </si>
+  <si>
+    <t>Toevoeging SewerAppurtenanceTypeIMKLValue: inspectieput als put-symbool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hstk 1.1 </t>
+  </si>
+  <si>
+    <t>zin aangepast: voor elk objecttype is er een tabel met visualisatieregels….</t>
   </si>
 </sst>
 </file>
@@ -261,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -293,9 +321,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK29"/>
+  <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,20 +1096,68 @@
       <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="6"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+    <row r="26" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A28" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>44096</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/IMKL2.x/5. visualisatie/PMKL-Handreiking-visualisatie-changelog.xlsx
+++ b/IMKL2.x/5. visualisatie/PMKL-Handreiking-visualisatie-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\5. visualisatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80846A4-73D5-404A-9204-44F17F931E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D349E98-A9A8-4B43-88FF-657AC0FB1A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -321,6 +327,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,7 +725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,64 +1115,64 @@
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>44096</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>44096</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>44096</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>44096</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="15">
         <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>44096</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
